--- a/Running projects/Meezan Bank Gujranwala/PO/004- Purchase order- for IIL pipe.xlsx
+++ b/Running projects/Meezan Bank Gujranwala/PO/004- Purchase order- for IIL pipe.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Pioneer\Running projects\Meezan Bank Gujranwala\PO\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92BA0AB5-8F4D-488B-AFEB-647FDA622A3E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C1AA286-A699-4294-BA94-66BADF45017E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -19,7 +19,7 @@
     <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A$1:$G$45</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">Sheet1!$26:$26</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191029" iterate="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -126,7 +126,8 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
+  <numFmts count="3">
+    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="164" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="165" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
@@ -344,7 +345,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="164" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -414,6 +415,9 @@
     <xf numFmtId="165" fontId="12" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
     </xf>
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -444,8 +448,8 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1054,10 +1058,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A10:I50"/>
+  <dimension ref="A10:I60"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="H45" sqref="H45"/>
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="H54" sqref="H54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1097,24 +1101,24 @@
       <c r="G16" s="10"/>
     </row>
     <row r="17" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A17" s="28" t="s">
+      <c r="A17" s="29" t="s">
         <v>21</v>
       </c>
-      <c r="B17" s="28"/>
-      <c r="C17" s="28"/>
-      <c r="D17" s="28"/>
-      <c r="E17" s="28"/>
-      <c r="F17" s="28"/>
-      <c r="G17" s="28"/>
+      <c r="B17" s="29"/>
+      <c r="C17" s="29"/>
+      <c r="D17" s="29"/>
+      <c r="E17" s="29"/>
+      <c r="F17" s="29"/>
+      <c r="G17" s="29"/>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A18" s="36"/>
-      <c r="B18" s="36"/>
-      <c r="C18" s="36"/>
-      <c r="D18" s="36"/>
-      <c r="E18" s="36"/>
-      <c r="F18" s="36"/>
-      <c r="G18" s="36"/>
+      <c r="A18" s="37"/>
+      <c r="B18" s="37"/>
+      <c r="C18" s="37"/>
+      <c r="D18" s="37"/>
+      <c r="E18" s="37"/>
+      <c r="F18" s="37"/>
+      <c r="G18" s="37"/>
     </row>
     <row r="19" spans="1:9" ht="6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="19"/>
@@ -1126,30 +1130,30 @@
       <c r="G19" s="19"/>
     </row>
     <row r="20" spans="1:9" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A20" s="29" t="s">
+      <c r="A20" s="30" t="s">
         <v>15</v>
       </c>
-      <c r="B20" s="29"/>
-      <c r="C20" s="29"/>
-      <c r="D20" s="29"/>
-      <c r="E20" s="29"/>
-      <c r="F20" s="29"/>
-      <c r="G20" s="29"/>
+      <c r="B20" s="30"/>
+      <c r="C20" s="30"/>
+      <c r="D20" s="30"/>
+      <c r="E20" s="30"/>
+      <c r="F20" s="30"/>
+      <c r="G20" s="30"/>
     </row>
     <row r="21" spans="1:9" ht="5.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="22" spans="1:9" ht="5.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="23" spans="1:9" ht="5.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="24" spans="1:9" ht="5.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="25" spans="1:9" ht="45.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="33" t="s">
+      <c r="A25" s="34" t="s">
         <v>23</v>
       </c>
-      <c r="B25" s="34"/>
-      <c r="C25" s="34"/>
-      <c r="D25" s="34"/>
-      <c r="E25" s="34"/>
-      <c r="F25" s="34"/>
-      <c r="G25" s="35"/>
+      <c r="B25" s="35"/>
+      <c r="C25" s="35"/>
+      <c r="D25" s="35"/>
+      <c r="E25" s="35"/>
+      <c r="F25" s="35"/>
+      <c r="G25" s="36"/>
     </row>
     <row r="26" spans="1:9" s="3" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A26" s="13" t="s">
@@ -1195,7 +1199,7 @@
       <c r="F27" s="23">
         <v>738.27</v>
       </c>
-      <c r="G27" s="37">
+      <c r="G27" s="27">
         <f>F27*E27</f>
         <v>26577.72</v>
       </c>
@@ -1221,7 +1225,7 @@
       <c r="F28" s="23">
         <v>4629.57</v>
       </c>
-      <c r="G28" s="37">
+      <c r="G28" s="27">
         <f>F28*E28</f>
         <v>111109.68</v>
       </c>
@@ -1231,12 +1235,12 @@
     <row r="29" spans="1:9" s="3" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="7"/>
       <c r="B29" s="7"/>
-      <c r="C29" s="30" t="s">
+      <c r="C29" s="31" t="s">
         <v>4</v>
       </c>
-      <c r="D29" s="30"/>
-      <c r="E29" s="30"/>
-      <c r="F29" s="30"/>
+      <c r="D29" s="31"/>
+      <c r="E29" s="31"/>
+      <c r="F29" s="31"/>
       <c r="G29" s="24">
         <f>SUM(G27:G28)</f>
         <v>137687.4</v>
@@ -1245,14 +1249,14 @@
       <c r="I29" s="21"/>
     </row>
     <row r="30" spans="1:9" s="3" customFormat="1" ht="17.45" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="31" t="s">
+      <c r="A30" s="32" t="s">
         <v>19</v>
       </c>
-      <c r="B30" s="31"/>
-      <c r="C30" s="31"/>
-      <c r="D30" s="31"/>
-      <c r="E30" s="31"/>
-      <c r="F30" s="31"/>
+      <c r="B30" s="32"/>
+      <c r="C30" s="32"/>
+      <c r="D30" s="32"/>
+      <c r="E30" s="32"/>
+      <c r="F30" s="32"/>
       <c r="G30" s="25">
         <f>G29*4%</f>
         <v>5507.4960000000001</v>
@@ -1261,14 +1265,14 @@
       <c r="I30" s="21"/>
     </row>
     <row r="31" spans="1:9" s="3" customFormat="1" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="32" t="s">
+      <c r="A31" s="33" t="s">
         <v>6</v>
       </c>
-      <c r="B31" s="32"/>
-      <c r="C31" s="32"/>
-      <c r="D31" s="32"/>
-      <c r="E31" s="32"/>
-      <c r="F31" s="32"/>
+      <c r="B31" s="33"/>
+      <c r="C31" s="33"/>
+      <c r="D31" s="33"/>
+      <c r="E31" s="33"/>
+      <c r="F31" s="33"/>
       <c r="G31" s="26">
         <f>G29-G30</f>
         <v>132179.90399999998</v>
@@ -1277,14 +1281,14 @@
       <c r="I31" s="21"/>
     </row>
     <row r="32" spans="1:9" s="3" customFormat="1" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="31" t="s">
+      <c r="A32" s="32" t="s">
         <v>20</v>
       </c>
-      <c r="B32" s="31"/>
-      <c r="C32" s="31"/>
-      <c r="D32" s="31"/>
-      <c r="E32" s="31"/>
-      <c r="F32" s="31"/>
+      <c r="B32" s="32"/>
+      <c r="C32" s="32"/>
+      <c r="D32" s="32"/>
+      <c r="E32" s="32"/>
+      <c r="F32" s="32"/>
       <c r="G32" s="25">
         <f>G29*18%</f>
         <v>24783.731999999996</v>
@@ -1293,14 +1297,14 @@
       <c r="I32" s="21"/>
     </row>
     <row r="33" spans="1:9" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="32" t="s">
+      <c r="A33" s="33" t="s">
         <v>6</v>
       </c>
-      <c r="B33" s="32"/>
-      <c r="C33" s="32"/>
-      <c r="D33" s="32"/>
-      <c r="E33" s="32"/>
-      <c r="F33" s="32"/>
+      <c r="B33" s="33"/>
+      <c r="C33" s="33"/>
+      <c r="D33" s="33"/>
+      <c r="E33" s="33"/>
+      <c r="F33" s="33"/>
       <c r="G33" s="26">
         <f>G32+G29+1</f>
         <v>162472.13199999998</v>
@@ -1323,24 +1327,24 @@
       </c>
     </row>
     <row r="40" spans="1:9" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="27" t="s">
+      <c r="A40" s="28" t="s">
         <v>11</v>
       </c>
-      <c r="B40" s="27"/>
-      <c r="C40" s="27"/>
-      <c r="D40" s="27"/>
-      <c r="E40" s="27"/>
-      <c r="F40" s="27"/>
-      <c r="G40" s="27"/>
+      <c r="B40" s="28"/>
+      <c r="C40" s="28"/>
+      <c r="D40" s="28"/>
+      <c r="E40" s="28"/>
+      <c r="F40" s="28"/>
+      <c r="G40" s="28"/>
     </row>
     <row r="41" spans="1:9" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="27"/>
-      <c r="B41" s="27"/>
-      <c r="C41" s="27"/>
-      <c r="D41" s="27"/>
-      <c r="E41" s="27"/>
-      <c r="F41" s="27"/>
-      <c r="G41" s="27"/>
+      <c r="A41" s="28"/>
+      <c r="B41" s="28"/>
+      <c r="C41" s="28"/>
+      <c r="D41" s="28"/>
+      <c r="E41" s="28"/>
+      <c r="F41" s="28"/>
+      <c r="G41" s="28"/>
     </row>
     <row r="42" spans="1:9" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
@@ -1381,7 +1385,7 @@
         <v>26578</v>
       </c>
     </row>
-    <row r="49" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A49" s="1" t="s">
         <v>22</v>
       </c>
@@ -1392,13 +1396,54 @@
         <v>4</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
       <c r="E50" s="9">
         <v>12</v>
       </c>
       <c r="F50" s="11">
         <f>F28*E50</f>
         <v>55554.84</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G52" s="38">
+        <f>F27*24</f>
+        <v>17718.48</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G53" s="9">
+        <v>26578</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G54" s="38">
+        <f>G52-G53</f>
+        <v>-8859.52</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G56" s="38">
+        <f>F28*12</f>
+        <v>55554.84</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G58" s="38">
+        <f>G56+G54</f>
+        <v>46695.319999999992</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G59" s="38">
+        <f>G58*18%</f>
+        <v>8405.1575999999986</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G60" s="38">
+        <f>G59+G58</f>
+        <v>55100.477599999991</v>
       </c>
     </row>
   </sheetData>
